--- a/TESTING/data testing.xlsx
+++ b/TESTING/data testing.xlsx
@@ -4685,6 +4685,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$54:$K$54</c:f>
@@ -4692,34 +4746,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1052</c:v>
+                  <c:v>0.10099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11019999999999996</c:v>
+                  <c:v>0.10580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11599999999999999</c:v>
+                  <c:v>0.10519999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11320000000000002</c:v>
+                  <c:v>0.10980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12299999999999998</c:v>
+                  <c:v>0.11720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1288</c:v>
+                  <c:v>0.12300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11380000000000003</c:v>
+                  <c:v>0.13279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11260000000000003</c:v>
+                  <c:v>0.14600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12360000000000007</c:v>
+                  <c:v>0.15780000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12420000000000003</c:v>
+                  <c:v>0.17240000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,6 +4807,51 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$B$2:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -4766,7 +4865,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>0.09</c:v>
+                        <c:v>0.08</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>0.09</c:v>
@@ -4784,16 +4883,16 @@
                         <c:v>0.1</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.1</c:v>
+                        <c:v>0.12</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.09</c:v>
+                        <c:v>0.12</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.1</c:v>
+                        <c:v>0.14000000000000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.11</c:v>
+                        <c:v>0.15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4814,6 +4913,51 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$B$2:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -4827,34 +4971,34 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>0.38</c:v>
+                        <c:v>0.13</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.39</c:v>
+                        <c:v>0.13</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.35</c:v>
+                        <c:v>0.13</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.14000000000000001</c:v>
+                        <c:v>0.15</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.4</c:v>
+                        <c:v>0.17</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.16</c:v>
+                        <c:v>0.15</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.15</c:v>
+                        <c:v>0.22</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.14000000000000001</c:v>
+                        <c:v>0.2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.16</c:v>
+                        <c:v>0.19</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.16</c:v>
+                        <c:v>0.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13851,8 +13995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13912,34 +14056,34 @@
         <v>121</v>
       </c>
       <c r="B3" s="10">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="10">
         <v>0.1</v>
       </c>
       <c r="E3" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="10">
         <v>0.11</v>
       </c>
       <c r="G3" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I3" s="10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J3" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K3" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -13950,31 +14094,31 @@
         <v>0.09</v>
       </c>
       <c r="C4" s="10">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F4" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="G4" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="10">
         <v>0.16</v>
       </c>
-      <c r="H4" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.11</v>
-      </c>
       <c r="J4" s="10">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K4" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13982,34 +14126,34 @@
         <v>125</v>
       </c>
       <c r="B5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.09</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.14000000000000001</v>
       </c>
       <c r="E5" s="10">
         <v>0.12</v>
       </c>
       <c r="F5" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.15</v>
       </c>
-      <c r="H5" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.1</v>
-      </c>
       <c r="J5" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K5" s="10">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -14017,34 +14161,34 @@
         <v>126</v>
       </c>
       <c r="B6" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="10">
         <v>0.1</v>
       </c>
       <c r="E6" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F6" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="10">
         <v>0.13</v>
       </c>
-      <c r="G6" s="10">
-        <v>0.11</v>
-      </c>
       <c r="H6" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I6" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14052,34 +14196,34 @@
         <v>127</v>
       </c>
       <c r="B7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.09</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.1</v>
-      </c>
       <c r="E7" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F7" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G7" s="10">
         <v>0.11</v>
       </c>
       <c r="H7" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I7" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J7" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K7" s="10">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -14087,34 +14231,34 @@
         <v>128</v>
       </c>
       <c r="B8" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C8" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="10">
         <v>0.1</v>
       </c>
       <c r="E8" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="10">
         <v>0.12</v>
       </c>
-      <c r="F8" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I8" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J8" s="10">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="K8" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -14122,13 +14266,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D9" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="10">
         <v>0.1</v>
@@ -14137,19 +14281,19 @@
         <v>0.11</v>
       </c>
       <c r="G9" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H9" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I9" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J9" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.16</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -14166,25 +14310,25 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F10" s="10">
         <v>0.11</v>
       </c>
       <c r="G10" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H10" s="10">
         <v>0.13</v>
       </c>
       <c r="I10" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J10" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K10" s="10">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14192,16 +14336,16 @@
         <v>131</v>
       </c>
       <c r="B11" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D11" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F11" s="10">
         <v>0.11</v>
@@ -14213,13 +14357,13 @@
         <v>0.13</v>
       </c>
       <c r="I11" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K11" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14227,34 +14371,34 @@
         <v>132</v>
       </c>
       <c r="B12" s="10">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C12" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D12" s="10">
         <v>0.11</v>
       </c>
       <c r="E12" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F12" s="10">
         <v>0.11</v>
       </c>
       <c r="G12" s="10">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H12" s="10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I12" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K12" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -14262,34 +14406,34 @@
         <v>122</v>
       </c>
       <c r="B13" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C13" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D13" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F13" s="10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G13" s="10">
         <v>0.12</v>
       </c>
       <c r="H13" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I13" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J13" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="K13" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -14300,31 +14444,31 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="10">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="10">
         <v>0.11</v>
       </c>
       <c r="F14" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G14" s="10">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H14" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I14" s="10">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J14" s="10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="K14" s="10">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -14332,34 +14476,34 @@
         <v>136</v>
       </c>
       <c r="B15" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="10">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G15" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I15" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J15" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K15" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -14370,31 +14514,31 @@
         <v>0.09</v>
       </c>
       <c r="C16" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D16" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="10">
         <v>0.11</v>
       </c>
       <c r="G16" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H16" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I16" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J16" s="10">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="K16" s="10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -14402,7 +14546,7 @@
         <v>138</v>
       </c>
       <c r="B17" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C17" s="10">
         <v>0.1</v>
@@ -14411,25 +14555,25 @@
         <v>0.11</v>
       </c>
       <c r="E17" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="10">
         <v>0.11</v>
       </c>
       <c r="G17" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="10">
         <v>0.13</v>
       </c>
-      <c r="H17" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I17" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K17" s="10">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -14437,10 +14581,10 @@
         <v>139</v>
       </c>
       <c r="B18" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C18" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D18" s="10">
         <v>0.11</v>
@@ -14449,22 +14593,22 @@
         <v>0.11</v>
       </c>
       <c r="F18" s="10">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G18" s="10">
         <v>0.12</v>
       </c>
       <c r="H18" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I18" s="10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K18" s="10">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -14472,34 +14616,34 @@
         <v>140</v>
       </c>
       <c r="B19" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C19" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D19" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E19" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F19" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G19" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="10">
         <v>0.16</v>
       </c>
-      <c r="H19" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.11</v>
-      </c>
       <c r="K19" s="10">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -14513,28 +14657,28 @@
         <v>0.1</v>
       </c>
       <c r="D20" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="10">
         <v>0.11</v>
       </c>
       <c r="F20" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G20" s="10">
         <v>0.13</v>
       </c>
       <c r="H20" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I20" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J20" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K20" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -14542,16 +14686,16 @@
         <v>142</v>
       </c>
       <c r="B21" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C21" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D21" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="E21" s="10">
         <v>0.12</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.11</v>
       </c>
       <c r="F21" s="10">
         <v>0.11</v>
@@ -14560,16 +14704,16 @@
         <v>0.12</v>
       </c>
       <c r="H21" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I21" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J21" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K21" s="10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -14583,28 +14727,28 @@
         <v>0.1</v>
       </c>
       <c r="D22" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F22" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G22" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H22" s="10">
         <v>0.13</v>
       </c>
       <c r="I22" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J22" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K22" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -14615,31 +14759,31 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="10">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="10">
         <v>0.12</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.11</v>
       </c>
       <c r="H23" s="10">
         <v>0.13</v>
       </c>
       <c r="I23" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J23" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K23" s="10">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -14647,13 +14791,13 @@
         <v>145</v>
       </c>
       <c r="B24" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C24" s="10">
         <v>0.1</v>
       </c>
       <c r="D24" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E24" s="10">
         <v>0.1</v>
@@ -14662,19 +14806,19 @@
         <v>0.11</v>
       </c>
       <c r="G24" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H24" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="J24" s="10">
         <v>0.15</v>
       </c>
-      <c r="I24" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="K24" s="10">
         <v>0.16</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.13</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -14682,7 +14826,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C25" s="10">
         <v>0.1</v>
@@ -14694,22 +14838,22 @@
         <v>0.11</v>
       </c>
       <c r="F25" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G25" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H25" s="10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I25" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J25" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K25" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -14717,16 +14861,16 @@
         <v>147</v>
       </c>
       <c r="B26" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C26" s="10">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="D26" s="10">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="E26" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F26" s="10">
         <v>0.11</v>
@@ -14741,10 +14885,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J26" s="10">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K26" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -14752,13 +14896,13 @@
         <v>148</v>
       </c>
       <c r="B27" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="C27" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D27" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="10">
         <v>0.1</v>
@@ -14767,19 +14911,19 @@
         <v>0.11</v>
       </c>
       <c r="G27" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H27" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I27" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J27" s="10">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K27" s="10">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -14787,34 +14931,34 @@
         <v>149</v>
       </c>
       <c r="B28" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C28" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D28" s="10">
         <v>0.1</v>
       </c>
       <c r="E28" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F28" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G28" s="10">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="H28" s="10">
         <v>0.12</v>
       </c>
       <c r="I28" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="J28" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K28" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -14822,34 +14966,34 @@
         <v>150</v>
       </c>
       <c r="B29" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C29" s="10">
         <v>0.1</v>
       </c>
       <c r="D29" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F29" s="10">
         <v>0.13</v>
       </c>
-      <c r="E29" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.12</v>
-      </c>
       <c r="G29" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H29" s="10">
         <v>0.13</v>
       </c>
-      <c r="H29" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I29" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J29" s="10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K29" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -14857,13 +15001,13 @@
         <v>151</v>
       </c>
       <c r="B30" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C30" s="10">
         <v>0.1</v>
       </c>
       <c r="D30" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="10">
         <v>0.12</v>
@@ -14872,19 +15016,19 @@
         <v>0.13</v>
       </c>
       <c r="G30" s="10">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H30" s="10">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I30" s="10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J30" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K30" s="10">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -14895,31 +15039,31 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D31" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="G31" s="10">
         <v>0.12</v>
       </c>
-      <c r="F31" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="10">
         <v>0.15</v>
       </c>
-      <c r="H31" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0.11</v>
-      </c>
       <c r="J31" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K31" s="10">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -14933,28 +15077,28 @@
         <v>0.11</v>
       </c>
       <c r="D32" s="10">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E32" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="10">
         <v>0.11</v>
       </c>
       <c r="G32" s="10">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H32" s="10">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I32" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J32" s="10">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K32" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -14962,34 +15106,34 @@
         <v>154</v>
       </c>
       <c r="B33" s="10">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="C33" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E33" s="10">
         <v>0.11</v>
       </c>
       <c r="F33" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G33" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H33" s="10">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I33" s="10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J33" s="10">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="K33" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -14997,34 +15141,34 @@
         <v>155</v>
       </c>
       <c r="B34" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="10">
         <v>0.12</v>
       </c>
-      <c r="D34" s="10">
-        <v>0.1</v>
-      </c>
       <c r="E34" s="10">
         <v>0.1</v>
       </c>
       <c r="F34" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G34" s="10">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H34" s="10">
         <v>0.12</v>
       </c>
       <c r="I34" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J34" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K34" s="10">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -15032,34 +15176,34 @@
         <v>156</v>
       </c>
       <c r="B35" s="10">
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
       <c r="C35" s="10">
         <v>0.1</v>
       </c>
       <c r="D35" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E35" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F35" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G35" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H35" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I35" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J35" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K35" s="10">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -15067,34 +15211,34 @@
         <v>157</v>
       </c>
       <c r="B36" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C36" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D36" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E36" s="10">
         <v>0.1</v>
       </c>
       <c r="F36" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G36" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="J36" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H36" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.12</v>
-      </c>
       <c r="K36" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -15105,31 +15249,31 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D37" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E37" s="10">
         <v>0.11</v>
       </c>
       <c r="F37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H37" s="10">
         <v>0.13</v>
       </c>
-      <c r="G37" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.1</v>
-      </c>
       <c r="I37" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="J37" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K37" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -15137,10 +15281,10 @@
         <v>159</v>
       </c>
       <c r="B38" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C38" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D38" s="10">
         <v>0.1</v>
@@ -15149,22 +15293,22 @@
         <v>0.11</v>
       </c>
       <c r="F38" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G38" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="H38" s="10">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I38" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="J38" s="10">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K38" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -15172,31 +15316,31 @@
         <v>160</v>
       </c>
       <c r="B39" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C39" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D39" s="10">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E39" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F39" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G39" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I39" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J39" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K39" s="10">
         <v>0.16</v>
@@ -15207,34 +15351,34 @@
         <v>161</v>
       </c>
       <c r="B40" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C40" s="10">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D40" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G40" s="10">
         <v>0.12</v>
       </c>
-      <c r="F40" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <v>0.13</v>
       </c>
-      <c r="H40" s="10">
-        <v>0.11</v>
-      </c>
       <c r="I40" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J40" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K40" s="10">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -15242,34 +15386,34 @@
         <v>162</v>
       </c>
       <c r="B41" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C41" s="10">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="D41" s="10">
         <v>0.1</v>
       </c>
       <c r="E41" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H41" s="10">
         <v>0.13</v>
       </c>
-      <c r="F41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="I41" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="J41" s="10">
         <v>0.15</v>
       </c>
-      <c r="H41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I41" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0.11</v>
-      </c>
       <c r="K41" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -15277,34 +15421,34 @@
         <v>163</v>
       </c>
       <c r="B42" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="C42" s="10">
         <v>0.09</v>
       </c>
-      <c r="C42" s="10">
-        <v>0.1</v>
-      </c>
       <c r="D42" s="10">
         <v>0.1</v>
       </c>
       <c r="E42" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="10">
         <v>0.12</v>
       </c>
-      <c r="F42" s="10">
-        <v>0.1</v>
-      </c>
       <c r="G42" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="10">
         <v>0.13</v>
       </c>
-      <c r="H42" s="10">
-        <v>0.12</v>
-      </c>
       <c r="I42" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J42" s="10">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="K42" s="10">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -15312,34 +15456,34 @@
         <v>164</v>
       </c>
       <c r="B43" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C43" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="D43" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E43" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F43" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G43" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H43" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I43" s="10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J43" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="K43" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -15347,34 +15491,34 @@
         <v>165</v>
       </c>
       <c r="B44" s="10">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C44" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D44" s="10">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E44" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F44" s="10">
         <v>0.12</v>
       </c>
       <c r="G44" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H44" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I44" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="J44" s="10">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K44" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -15382,34 +15526,34 @@
         <v>166</v>
       </c>
       <c r="B45" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C45" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D45" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E45" s="10">
         <v>0.11</v>
       </c>
       <c r="F45" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G45" s="10">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H45" s="10">
         <v>0.13</v>
       </c>
       <c r="I45" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J45" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K45" s="10">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -15417,34 +15561,34 @@
         <v>167</v>
       </c>
       <c r="B46" s="10">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C46" s="10">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D46" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E46" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="I46" s="10">
         <v>0.13</v>
       </c>
-      <c r="F46" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0.1</v>
-      </c>
       <c r="J46" s="10">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K46" s="10">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -15452,34 +15596,34 @@
         <v>168</v>
       </c>
       <c r="B47" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C47" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="10">
         <v>0.12</v>
       </c>
-      <c r="D47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.13</v>
-      </c>
       <c r="F47" s="10">
         <v>0.11</v>
       </c>
       <c r="G47" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="I47" s="10">
         <v>0.15</v>
       </c>
-      <c r="H47" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0.11</v>
-      </c>
       <c r="J47" s="10">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K47" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -15490,31 +15634,31 @@
         <v>0.11</v>
       </c>
       <c r="C48" s="10">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D48" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F48" s="10">
         <v>0.12</v>
       </c>
       <c r="G48" s="10">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H48" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I48" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="J48" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K48" s="10">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -15522,34 +15666,34 @@
         <v>170</v>
       </c>
       <c r="B49" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C49" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D49" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E49" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F49" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G49" s="10">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H49" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I49" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J49" s="10">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K49" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -15557,34 +15701,34 @@
         <v>171</v>
       </c>
       <c r="B50" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C50" s="10">
         <v>0.1</v>
       </c>
       <c r="D50" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E50" s="10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F50" s="10">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="G50" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H50" s="10">
         <v>0.13</v>
       </c>
       <c r="I50" s="10">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J50" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K50" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -15592,34 +15736,34 @@
         <v>172</v>
       </c>
       <c r="B51" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C51" s="10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D51" s="10">
         <v>0.12</v>
       </c>
       <c r="E51" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="G51" s="10">
         <v>0.12</v>
       </c>
-      <c r="F51" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.11</v>
-      </c>
       <c r="H51" s="10">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I51" s="10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="J51" s="10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="K51" s="10">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -15627,34 +15771,34 @@
         <v>173</v>
       </c>
       <c r="B52" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="10">
         <v>0.13</v>
       </c>
-      <c r="C52" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.11</v>
-      </c>
       <c r="E52" s="10">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F52" s="10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G52" s="10">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="H52" s="10">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I52" s="10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J52" s="10">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K52" s="10">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -15663,43 +15807,43 @@
       </c>
       <c r="B54">
         <f>AVERAGE(B3:B52)</f>
-        <v>0.1052</v>
+        <v>0.10099999999999999</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:K54" si="0">AVERAGE(C3:C52)</f>
-        <v>0.11019999999999996</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>0.11599999999999999</v>
+        <v>0.10519999999999997</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>0.11320000000000002</v>
+        <v>0.10980000000000004</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>0.12299999999999998</v>
+        <v>0.11720000000000004</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0.1288</v>
+        <v>0.12300000000000005</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0.11380000000000003</v>
+        <v>0.13279999999999997</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0.11260000000000003</v>
+        <v>0.14600000000000002</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>0.12360000000000007</v>
+        <v>0.15780000000000005</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>0.12420000000000003</v>
+        <v>0.17240000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -15708,7 +15852,7 @@
       </c>
       <c r="B55">
         <f>MIN(B3:B52)</f>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C55">
         <f t="shared" ref="C55:K55" si="1">MIN(C3:C52)</f>
@@ -15732,19 +15876,19 @@
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -15753,43 +15897,43 @@
       </c>
       <c r="B56">
         <f>MAX(B3:B52)</f>
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:K56" si="2">MAX(C3:C52)</f>
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/data testing.xlsx
+++ b/TESTING/data testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="185">
   <si>
     <t>Accepted</t>
   </si>
@@ -378,15 +378,6 @@
     <t>((((((((((b|a)|a)*)b)a)*)*)|((((((((a*)*)(ab))|(ba))((a|(b((b|a)a)))|(ab)))*)*)(((((a*)(a|b))|b)|a)b)))|b)*) 999999993</t>
   </si>
   <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>RE = (((((((((ab)*)a)a)*)|(((a*)(a*))|a))|b)*)|(((((((((ab)a)*)*)|((((ba)|a)*)|a))*)*)((((a(b|a))*)*)*))*))</t>
   </si>
   <si>
@@ -583,13 +574,22 @@
   </si>
   <si>
     <t>L = 10^9</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Maks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +597,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,8 +630,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E0D0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -684,11 +697,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,14 +746,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,6 +786,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotTable Style 1" table="0" count="0"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF6E0D0D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -842,8 +915,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="164"/>
-        <c:axId val="1359082368"/>
-        <c:axId val="1359084544"/>
+        <c:axId val="-68531152"/>
+        <c:axId val="-68544208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1080,11 +1153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1359082368"/>
-        <c:axId val="1359084544"/>
+        <c:axId val="-68531152"/>
+        <c:axId val="-68544208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1359082368"/>
+        <c:axId val="-68531152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1215,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1179,10 +1252,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359084544"/>
+        <c:crossAx val="-68544208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1359084544"/>
+        <c:axId val="-68544208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1334,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1293,10 +1366,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359082368"/>
+        <c:crossAx val="-68531152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1336,7 +1409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1366,7 +1439,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1586,8 +1659,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1212933392"/>
-        <c:axId val="1212929040"/>
+        <c:axId val="-68539856"/>
+        <c:axId val="-68524624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1982,7 +2055,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1212933392"/>
+        <c:axId val="-68539856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2040,7 +2112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2077,10 +2149,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212929040"/>
+        <c:crossAx val="-68524624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1212929040"/>
+        <c:axId val="-68524624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2211,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2165,7 +2236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2197,10 +2268,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212933392"/>
+        <c:crossAx val="-68539856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2214,7 +2285,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2240,7 +2310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2270,7 +2340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2423,11 +2493,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1212936656"/>
-        <c:axId val="1212937200"/>
+        <c:axId val="-68539312"/>
+        <c:axId val="-68538768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1212936656"/>
+        <c:axId val="-68539312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1212937200"/>
+        <c:crossAx val="-68538768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2444,7 +2514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1212937200"/>
+        <c:axId val="-68538768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +2597,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2559,10 +2629,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212936656"/>
+        <c:crossAx val="-68539312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,7 +2646,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2602,7 +2671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2632,7 +2701,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2658,7 +2727,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2684,7 +2752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2800,11 +2868,11 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="30"/>
-        <c:axId val="1431806528"/>
-        <c:axId val="1431811424"/>
+        <c:axId val="-68522992"/>
+        <c:axId val="-68535504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1431806528"/>
+        <c:axId val="-68522992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,10 +2912,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431811424"/>
+        <c:crossAx val="-68535504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2855,7 +2923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1431811424"/>
+        <c:axId val="-68535504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,10 +2971,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431806528"/>
+        <c:crossAx val="-68522992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +3012,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3220,11 +3288,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1353360688"/>
-        <c:axId val="1353356880"/>
+        <c:axId val="-68537680"/>
+        <c:axId val="-68521904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1353360688"/>
+        <c:axId val="-68537680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3354,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3323,10 +3391,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353356880"/>
+        <c:crossAx val="-68521904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3334,7 +3402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1353356880"/>
+        <c:axId val="-68521904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3474,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3438,10 +3506,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1353360688"/>
+        <c:crossAx val="-68537680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3481,7 +3549,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3511,7 +3579,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3664,11 +3732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1421482416"/>
-        <c:axId val="1421496560"/>
+        <c:axId val="-68518640"/>
+        <c:axId val="-68519728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1421482416"/>
+        <c:axId val="-68518640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3677,7 +3745,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1421496560"/>
+        <c:crossAx val="-68519728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3685,7 +3753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1421496560"/>
+        <c:axId val="-68519728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +3833,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3797,10 +3865,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421482416"/>
+        <c:crossAx val="-68518640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3840,7 +3908,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3870,7 +3938,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3991,7 +4059,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="id-ID"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4078,8 +4146,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1431804896"/>
-        <c:axId val="1431813056"/>
+        <c:axId val="-124201392"/>
+        <c:axId val="-124186160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4261,7 +4329,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet4!$B$2:$J$2</c15:sqref>
@@ -4302,7 +4370,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet4!$B$56:$J$56</c15:sqref>
@@ -4348,7 +4416,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1431804896"/>
+        <c:axId val="-124201392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4482,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4452,10 +4520,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431813056"/>
+        <c:crossAx val="-124186160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4463,7 +4531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1431813056"/>
+        <c:axId val="-124186160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4603,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="id-ID"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4567,10 +4635,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431804896"/>
+        <c:crossAx val="-124201392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4610,7 +4678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4640,7 +4708,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4789,8 +4857,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1513657488"/>
-        <c:axId val="1513661840"/>
+        <c:axId val="-124181808"/>
+        <c:axId val="-124198128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4915,7 +4983,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet5!$B$2:$K$2</c15:sqref>
@@ -4960,7 +5028,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet5!$B$56:$K$56</c15:sqref>
@@ -5009,7 +5077,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1513657488"/>
+        <c:axId val="-124181808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,10 +5117,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1513661840"/>
+        <c:crossAx val="-124198128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5060,7 +5128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1513661840"/>
+        <c:axId val="-124198128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,10 +5176,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1513657488"/>
+        <c:crossAx val="-124181808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5151,7 +5219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5181,7 +5249,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10079,17 +10147,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="G17" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10105,14 +10180,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>118</v>
+      <c r="E1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10128,16 +10203,16 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <f>AVERAGE($C$2:$C$16)</f>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E16" si="0">AVERAGE($C$2:$C$16)</f>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F2">
-        <f>MIN($C$2:$C$16)</f>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:F16" si="1">MIN($C$2:$C$16)</f>
         <v>0.6</v>
       </c>
-      <c r="G2">
-        <f>MAX($C$2:$C$16)</f>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G16" si="2">MAX($C$2:$C$16)</f>
         <v>0.71</v>
       </c>
     </row>
@@ -10154,16 +10229,16 @@
       <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">AVERAGE($C$2:$C$16)</f>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">MIN($C$2:$C$16)</f>
+      <c r="F3" s="7">
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G16" si="2">MAX($C$2:$C$16)</f>
+      <c r="G3" s="7">
+        <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
     </row>
@@ -10180,15 +10255,15 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10206,15 +10281,15 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10232,15 +10307,15 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10258,15 +10333,15 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10284,15 +10359,15 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10310,15 +10385,15 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10336,15 +10411,15 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10362,15 +10437,15 @@
       <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10388,15 +10463,15 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10414,15 +10489,15 @@
       <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10440,15 +10515,15 @@
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10466,15 +10541,15 @@
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
@@ -10492,20 +10567,309 @@
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0.65466666666666662</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>0.71</v>
       </c>
     </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="N25" s="11">
+        <v>3</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="N26" s="12">
+        <v>3</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N27" s="12">
+        <v>3</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="N28" s="12">
+        <v>3</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="3">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N29" s="12">
+        <v>3</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="3">
+        <v>6</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N30" s="12">
+        <v>3</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="3">
+        <v>7</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N31" s="12">
+        <v>3</v>
+      </c>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K32" s="3">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3</v>
+      </c>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K33" s="3">
+        <v>9</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N33" s="12">
+        <v>3</v>
+      </c>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K34" s="3">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="N34" s="12">
+        <v>3</v>
+      </c>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K35" s="3">
+        <v>11</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="N35" s="12">
+        <v>3</v>
+      </c>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K36" s="3">
+        <v>12</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N36" s="12">
+        <v>3</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K37" s="3">
+        <v>13</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="N37" s="12">
+        <v>3</v>
+      </c>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K38" s="3">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="N38" s="12">
+        <v>3</v>
+      </c>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K39" s="4">
+        <v>15</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N39" s="13">
+        <v>3</v>
+      </c>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P25:P39"/>
+    <mergeCell ref="Q25:Q39"/>
+    <mergeCell ref="O25:O39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11672,7 +12036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -12188,1770 +12552,1770 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="B14" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.08</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D14" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.09</v>
       </c>
-      <c r="D3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="G14" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.09</v>
       </c>
-      <c r="G3" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="C15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.09</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D24" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E25" s="7">
         <v>0.09</v>
       </c>
-      <c r="D4" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="F25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="7">
         <v>0.09</v>
       </c>
-      <c r="I4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="7">
         <v>0.09</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="C27" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J27" s="7">
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H28" s="7">
         <v>0.09</v>
       </c>
-      <c r="D6" s="8">
+      <c r="I28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G29" s="7">
         <v>0.13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="H29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="7">
         <v>0.09</v>
       </c>
-      <c r="F6" s="8">
+      <c r="C30" s="7">
         <v>0.09</v>
       </c>
-      <c r="G6" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="D30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="7">
         <v>0.09</v>
       </c>
-      <c r="J6" s="8">
+      <c r="F30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E40" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="F40" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="7">
         <v>0.08</v>
       </c>
-      <c r="C7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D43" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E43" s="7">
         <v>0.09</v>
       </c>
-      <c r="G7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="F43" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G43" s="7">
         <v>0.09</v>
       </c>
-      <c r="J7" s="8">
+      <c r="H43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I51" s="7">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="J51" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I52" s="7">
         <v>0.15</v>
       </c>
-      <c r="J8" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="J52" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="C38" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="C45" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="C50" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0.26</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H52" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <f>AVERAGE(B3:B52)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <f t="shared" ref="C54:J54" si="0">AVERAGE(C3:C52)</f>
         <v>9.6599999999999978E-2</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <f t="shared" si="0"/>
         <v>0.10220000000000001</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <f t="shared" si="0"/>
         <v>0.10379999999999998</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <f t="shared" si="0"/>
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <f t="shared" si="0"/>
         <v>0.10639999999999997</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <f t="shared" si="0"/>
         <v>0.10799999999999998</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <f t="shared" si="0"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <f t="shared" si="0"/>
         <v>0.12899999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="7">
         <f>MAX(B3:B52)</f>
         <v>0.11</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <f t="shared" ref="C55:J55" si="1">MAX(C3:C52)</f>
         <v>0.13</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="8">
+      <c r="A56" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="7">
         <f>MIN(B3:B52)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <f t="shared" ref="C56:J56" si="2">MIN(C3:C52)</f>
         <v>0.08</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -13995,1815 +14359,1815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>30</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>40</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>50</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>60</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>70</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>80</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>90</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="B4" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="10">
+      <c r="G4" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J3" s="10">
+      <c r="H5" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I5" s="9">
         <v>0.15</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J5" s="9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="K5" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.09</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E7" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I7" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G4" s="10">
+      <c r="J7" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="9">
         <v>0.12</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I8" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="9">
         <v>0.13</v>
       </c>
-      <c r="I4" s="10">
+      <c r="H9" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="K9" s="9">
         <v>0.16</v>
       </c>
-      <c r="J4" s="10">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K11" s="9">
         <v>0.15</v>
       </c>
-      <c r="K4" s="10">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="9">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="K13" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.09</v>
       </c>
-      <c r="E5" s="10">
+      <c r="C16" s="9">
         <v>0.12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="D16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="9">
         <v>0.13</v>
       </c>
-      <c r="G5" s="10">
+      <c r="I17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H19" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I19" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F20" s="9">
         <v>0.13</v>
       </c>
-      <c r="I5" s="10">
+      <c r="G20" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J20" s="9">
         <v>0.15</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K20" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="9">
         <v>0.15</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J21" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="K46" s="9">
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G6" s="10">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="9">
         <v>0.13</v>
       </c>
-      <c r="H6" s="10">
+      <c r="D47" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="9">
         <v>0.12</v>
       </c>
-      <c r="I6" s="10">
+      <c r="F47" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="I47" s="9">
         <v>0.15</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J47" s="9">
         <v>0.16</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K47" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K48" s="9">
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="9">
         <v>0.12</v>
       </c>
-      <c r="D7" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F49" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="H50" s="9">
         <v>0.13</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I50" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J50" s="9">
         <v>0.16</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K50" s="9">
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="10">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="9">
         <v>0.12</v>
       </c>
-      <c r="I8" s="10">
+      <c r="E51" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F52" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J8" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="G52" s="9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="H52" s="9">
         <v>0.13</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I52" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I9" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J52" s="9">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K23" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="J37" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K37" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I39" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K39" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I40" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I41" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="K42" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I43" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="K43" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K44" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I45" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K45" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K47" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="I48" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K48" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K49" s="10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K51" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>0.22</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B54">
         <f>AVERAGE(B3:B52)</f>
@@ -15848,7 +16212,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <f>MIN(B3:B52)</f>
@@ -15893,7 +16257,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56">
         <f>MAX(B3:B52)</f>
